--- a/Clase06_REF_00/Data/Config.xlsx
+++ b/Clase06_REF_00/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\UiPath\Clase06_REF_00\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D4B8786-6C4D-4358-A000-2B29BFA6F04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70676A0F-64F9-4011-BD67-5515F0A43693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6852" yWindow="1560" windowWidth="11544" windowHeight="9192" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>Name</t>
   </si>
@@ -156,9 +156,6 @@
     <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
   </si>
   <si>
-    <t>Carga Datos</t>
-  </si>
-  <si>
     <t>Carga Datos CUIT</t>
   </si>
   <si>
@@ -172,13 +169,40 @@
   </si>
   <si>
     <t>FALSE</t>
+  </si>
+  <si>
+    <t>ftpServer</t>
+  </si>
+  <si>
+    <t>ftp.box.com</t>
+  </si>
+  <si>
+    <t>ftpAssetCredencial</t>
+  </si>
+  <si>
+    <t>credencialFtp</t>
+  </si>
+  <si>
+    <t>Nombre del asset que contiene las credenciales de acceso FTP</t>
+  </si>
+  <si>
+    <t>server ftp</t>
+  </si>
+  <si>
+    <t>ftpRutaRemota</t>
+  </si>
+  <si>
+    <t>ftpRutaDeSalida</t>
+  </si>
+  <si>
+    <t>CargaCuits01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -202,6 +226,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -220,10 +250,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -233,8 +264,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -550,7 +583,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -600,7 +633,7 @@
         <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
@@ -621,7 +654,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>22</v>
@@ -629,19 +662,47 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" t="s">
         <v>45</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>46</v>
       </c>
-      <c r="C6" t="s">
-        <v>47</v>
-      </c>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+    </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1632,8 +1693,11 @@
     <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{BA331C22-93C6-4C17-BBD2-BB50851D1109}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1817,7 +1881,7 @@
         <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>41</v>
